--- a/NEET_2024_Excel/Individual_Excel/250127.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/250127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5212,204 +5212,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
-      <c r="C284" t="s">
-        <v>5</v>
-      </c>
-      <c r="D284" t="s">
-        <v>6</v>
-      </c>
-      <c r="E284" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="C285" t="s">
-        <v>5</v>
-      </c>
-      <c r="D285" t="s">
-        <v>6</v>
-      </c>
-      <c r="E285" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-      <c r="D286" t="s">
-        <v>6</v>
-      </c>
-      <c r="E286" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="C287" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" t="s">
-        <v>6</v>
-      </c>
-      <c r="E287" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
-        <v>5</v>
-      </c>
-      <c r="D288" t="s">
-        <v>6</v>
-      </c>
-      <c r="E288" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="3:5">
-      <c r="C289" t="s">
-        <v>5</v>
-      </c>
-      <c r="D289" t="s">
-        <v>6</v>
-      </c>
-      <c r="E289" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="3:5">
-      <c r="C290" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" t="s">
-        <v>6</v>
-      </c>
-      <c r="E290" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="3:5">
-      <c r="C291" t="s">
-        <v>5</v>
-      </c>
-      <c r="D291" t="s">
-        <v>6</v>
-      </c>
-      <c r="E291" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="3:5">
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" t="s">
-        <v>6</v>
-      </c>
-      <c r="E292" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="3:5">
-      <c r="C293" t="s">
-        <v>5</v>
-      </c>
-      <c r="D293" t="s">
-        <v>6</v>
-      </c>
-      <c r="E293" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="3:5">
-      <c r="C294" t="s">
-        <v>5</v>
-      </c>
-      <c r="D294" t="s">
-        <v>6</v>
-      </c>
-      <c r="E294" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5">
-      <c r="C295" t="s">
-        <v>5</v>
-      </c>
-      <c r="D295" t="s">
-        <v>6</v>
-      </c>
-      <c r="E295" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5">
-      <c r="C296" t="s">
-        <v>5</v>
-      </c>
-      <c r="D296" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="3:5">
-      <c r="C297" t="s">
-        <v>5</v>
-      </c>
-      <c r="D297" t="s">
-        <v>6</v>
-      </c>
-      <c r="E297" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="3:5">
-      <c r="C298" t="s">
-        <v>5</v>
-      </c>
-      <c r="D298" t="s">
-        <v>6</v>
-      </c>
-      <c r="E298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="3:5">
-      <c r="C299" t="s">
-        <v>5</v>
-      </c>
-      <c r="D299" t="s">
-        <v>6</v>
-      </c>
-      <c r="E299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300" spans="3:5">
-      <c r="C300" t="s">
-        <v>5</v>
-      </c>
-      <c r="D300" t="s">
-        <v>6</v>
-      </c>
-      <c r="E300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="3:5">
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-      <c r="D301" t="s">
-        <v>6</v>
-      </c>
-      <c r="E301" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
